--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="380">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1449,10 +1329,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1514,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1647,11 +1527,10 @@
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1659,5193 +1538,5071 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>191</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>180</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>301</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>333</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>344</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>341</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>343</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>360</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>335</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>161</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>374</v>
+        <v>163</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>367</v>
+        <v>164</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>345</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>346</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>384</v>
+        <v>349</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>145</v>
+        <v>353</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>200</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>394</v>
+        <v>359</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>361</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>396</v>
+        <v>160</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>364</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>401</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>374</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1329,10 +1449,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1514,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1527,10 +1647,11 @@
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1538,5071 +1659,5193 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>217</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>161</v>
+        <v>377</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>164</v>
+        <v>367</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>207</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>352</v>
+        <v>139</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>353</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>396</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>370</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -737,7 +737,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://loinc.dummy.org</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -737,7 +737,7 @@
     <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://loinc.dummy.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -154,6 +154,10 @@
   <si>
     <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1662,16 +1666,16 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>41</v>
@@ -1679,10 +1683,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1693,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>41</v>
@@ -1702,19 +1706,19 @@
         <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1764,13 +1768,13 @@
         <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>41</v>
@@ -1793,10 +1797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1807,7 +1811,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>41</v>
@@ -1816,16 +1820,16 @@
         <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1876,19 +1880,19 @@
         <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>41</v>
@@ -1905,10 +1909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1919,28 +1923,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1990,19 +1994,19 @@
         <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>41</v>
@@ -2019,10 +2023,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2033,7 +2037,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>41</v>
@@ -2045,16 +2049,16 @@
         <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2080,13 +2084,13 @@
         <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>41</v>
@@ -2104,19 +2108,19 @@
         <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>41</v>
@@ -2133,21 +2137,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>41</v>
@@ -2159,16 +2163,16 @@
         <v>41</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2218,19 +2222,19 @@
         <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>41</v>
@@ -2239,7 +2243,7 @@
         <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>41</v>
@@ -2247,14 +2251,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2273,16 +2277,16 @@
         <v>41</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2332,7 +2336,7 @@
         <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2353,7 +2357,7 @@
         <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>41</v>
@@ -2361,14 +2365,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2387,16 +2391,16 @@
         <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2446,7 +2450,7 @@
         <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2458,7 +2462,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>41</v>
@@ -2467,7 +2471,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>41</v>
@@ -2475,14 +2479,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2495,25 +2499,25 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>41</v>
@@ -2562,7 +2566,7 @@
         <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2574,7 +2578,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>41</v>
@@ -2583,7 +2587,7 @@
         <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>41</v>
@@ -2591,14 +2595,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2614,22 +2618,22 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2678,7 +2682,7 @@
         <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2690,31 +2694,31 @@
         <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2733,19 +2737,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2794,7 +2798,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2806,16 +2810,16 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2823,10 +2827,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2834,32 +2838,32 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2884,13 +2888,13 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>41</v>
@@ -2908,47 +2912,47 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2960,19 +2964,19 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2998,29 +3002,29 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3032,40 +3036,40 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>41</v>
@@ -3074,19 +3078,19 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3112,11 +3116,11 @@
         <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3134,7 +3138,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3146,27 +3150,27 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3177,7 +3181,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -3189,13 +3193,13 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3246,13 +3250,13 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
@@ -3267,7 +3271,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3275,14 +3279,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3301,16 +3305,16 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3348,19 +3352,19 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3372,7 +3376,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -3381,7 +3385,7 @@
         <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3389,10 +3393,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3412,22 +3416,22 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3476,7 +3480,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3488,16 +3492,16 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3505,10 +3509,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3519,7 +3523,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3531,13 +3535,13 @@
         <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3588,13 +3592,13 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
@@ -3609,7 +3613,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3617,14 +3621,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3643,16 +3647,16 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3690,19 +3694,19 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3714,7 +3718,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3723,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3731,10 +3735,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3742,10 +3746,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3754,29 +3758,29 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3818,28 +3822,28 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3847,10 +3851,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3861,7 +3865,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3870,19 +3874,19 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3932,28 +3936,28 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3961,10 +3965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3975,7 +3979,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3984,27 +3988,27 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4046,28 +4050,28 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4075,10 +4079,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4089,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4098,20 +4102,20 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4121,7 +4125,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4160,28 +4164,28 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4189,10 +4193,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4203,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4212,22 +4216,22 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4276,28 +4280,28 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4305,10 +4309,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4319,7 +4323,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4328,22 +4332,22 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4392,28 +4396,28 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4421,21 +4425,21 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4444,19 +4448,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4482,13 +4486,13 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4506,50 +4510,50 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4558,22 +4562,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -4622,50 +4626,50 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
@@ -4674,22 +4678,22 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4738,50 +4742,50 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4790,22 +4794,22 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>41</v>
@@ -4854,50 +4858,50 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4906,22 +4910,22 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4970,43 +4974,43 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5022,22 +5026,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5086,7 +5090,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5098,31 +5102,31 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5138,22 +5142,22 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>41</v>
@@ -5202,7 +5206,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5214,27 +5218,27 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5257,19 +5261,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5318,7 +5322,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5330,16 +5334,16 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5347,14 +5351,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5373,19 +5377,19 @@
         <v>41</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5434,7 +5438,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5446,16 +5450,16 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5463,10 +5467,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5489,16 +5493,16 @@
         <v>41</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5548,7 +5552,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5560,7 +5564,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -5569,7 +5573,7 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5577,14 +5581,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5600,22 +5604,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5664,7 +5668,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5676,16 +5680,16 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5693,10 +5697,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5707,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5719,13 +5723,13 @@
         <v>41</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5776,13 +5780,13 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
@@ -5797,7 +5801,7 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5805,14 +5809,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5831,16 +5835,16 @@
         <v>41</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5890,7 +5894,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5902,7 +5906,7 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>41</v>
@@ -5911,7 +5915,7 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5919,14 +5923,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5939,25 +5943,25 @@
         <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6006,7 +6010,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6018,7 +6022,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>41</v>
@@ -6027,7 +6031,7 @@
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>41</v>
@@ -6035,10 +6039,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6049,7 +6053,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>41</v>
@@ -6061,19 +6065,19 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6122,19 +6126,19 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -6143,7 +6147,7 @@
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6151,10 +6155,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6162,10 +6166,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -6174,16 +6178,16 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6234,19 +6238,19 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -6255,7 +6259,7 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6263,21 +6267,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>41</v>
@@ -6289,17 +6293,17 @@
         <v>41</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6348,28 +6352,28 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>41</v>
@@ -6377,10 +6381,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6403,16 +6407,16 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6438,13 +6442,13 @@
         <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>41</v>
@@ -6462,7 +6466,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6474,16 +6478,16 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6491,10 +6495,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6517,19 +6521,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6578,7 +6582,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6590,16 +6594,16 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="307">
   <si>
     <t>Property</t>
   </si>
@@ -465,10 +465,10 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード。微生物検査では、LoincコードのLP7819-8 微生物検査/MICRO を使用する。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード。微生物検査では、LoincコードのLP7819-8 微生物検査/MICRO を使用する。</t>
   </si>
   <si>
     <t>さまざまな分類スキームを使用して、複数のカテゴリが許可されています。粒度のレベルは、値セットのカテゴリの概念によって定義されます。DiagnosticReport.codeのメタデータおよび/または用語階層を使用して、より微細粒度フィルタリングを実行できます。 / Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
@@ -483,7 +483,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding.system}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -511,18 +511,352 @@
     <t>レポートを作成した臨床分野、部門、または診断サービスを分類するコード（例：心臓病学、生化学、血液学、MRI）。これは、検索、並べ替え、表示に使用されます。 / A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.
-さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。
-【JP Core仕様】Diagnostic Service Section Codesの"LAB"を使用</t>
+    <t>【JP Core仕様】レポートカテゴリーとして、LoincコードのLP7819-8 (微生物検査/MICRO)を使用する。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="LP7819-8"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:microbiology.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.id</t>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>診断レポート種別「微生物学的検査報告書」を表す文書コード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポート種別「微生物学的検査報告書」を表す文書コード</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://jpfhir.jp/fhir/core/CodeSystem/JP_DocumentCodes_CS"/&gt;
+    &lt;code value="18725-2"/&gt;
+    &lt;display value="微生物学的検査報告書"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>診断レポートを説明するコード。 / Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
+    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの対象患者に関する情報</t>
+  </si>
+  <si>
+    <t>レポートの対象、通常、Patientリソースへの参照。ただし、他のさまざまなソースから収集された検体を対象とすることもある。参照は内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+  </si>
+  <si>
+    <t>主題のコンテキストを知っておく必要があります。 / SHALL know the subject context.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
+</t>
+  </si>
+  <si>
+    <t>直近の細菌検査に直結するEncounterリソースを参照【詳細参照】</t>
+  </si>
+  <si>
+    <t>直近の細菌検査に直結するEncounterリソースを参照</t>
+  </si>
+  <si>
+    <t>受診、入院、診察など。通常、イベントが発生したEncounterであるが、一部のイベントは、Encounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
+  </si>
+  <si>
+    <t>リクエストをエンカウンターコンテキストにリンクします。 / Links the request to the Encounter context.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x]</t>
+  </si>
+  <si>
+    <t>Observation time
+Effective TimeOccurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>検体採取日時（effectivePeriod は未使用）【詳細参照】</t>
+  </si>
+  <si>
+    <t>検体採取日時（effectivePeriod は未使用）</t>
+  </si>
+  <si>
+    <t>診断手順が患者に対して実行された場合、これは実施された時間である。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。</t>
+  </si>
+  <si>
+    <t>このレポートを提出/提示するために、患者履歴のどこにあるかを知る必要があります。 / Need to know where in the patient history to file/present this report.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.issued</t>
+  </si>
+  <si>
+    <t>Date published
+Date IssuedDate Verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>最新のレポート確定日【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時。</t>
+  </si>
+  <si>
+    <t>通常、レポートがレビューおよび検証・確定された後となる。リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。</t>
+  </si>
+  <si>
+    <t>臨床医は、報告書が発表された日付を確認できる必要があります。 / Clinicians need to be able to check the date that the report was released.</t>
+  </si>
+  <si>
+    <t>OBR-22</t>
+  </si>
+  <si>
+    <t>participation[typeCode=VRF or AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.performer</t>
+  </si>
+  <si>
+    <t>Laboratory
+ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする</t>
+  </si>
+  <si>
+    <t>必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。</t>
+  </si>
+  <si>
+    <t>結果についてクエリがある場合は、誰に連絡するかを知る必要があります。また、二次データ分析のためにレポートのソースを追跡する必要がある場合があります。 / Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.resultsInterpreter</t>
+  </si>
+  <si>
+    <t>Analyzed by
+Reported by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+</t>
+  </si>
+  <si>
+    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）【詳細参照】</t>
+  </si>
+  <si>
+    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）</t>
+  </si>
+  <si>
+    <t>診断レポートに責任を持つもの(performer)とは異なる場合がある。</t>
+  </si>
+  <si>
+    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen)
+</t>
+  </si>
+  <si>
+    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートのもとになった検体に関する情報</t>
+  </si>
+  <si>
+    <t>検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。</t>
+  </si>
+  <si>
+    <t>レポートの基礎となる収集された標本に関する情報を報告できる必要があります。 / Need to be able to report information about the collected specimens on which the report is based.</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.result</t>
+  </si>
+  <si>
+    <t>Data
+Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Microbiology)
+</t>
+  </si>
+  <si>
+    <t>該当するObservationを設定する【詳細参照】</t>
+  </si>
+  <si>
+    <t>該当するObservationを設定する</t>
+  </si>
+  <si>
+    <t>Observationsは階層構造を持てる。</t>
+  </si>
+  <si>
+    <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
+  </si>
+  <si>
+    <t>OBXs</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.imagingStudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ImagingStudy)
+</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用</t>
+  </si>
+  <si>
+    <t>診断的精査中に実施された画像検査の詳細情報へのひとつ/複数のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査だが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media</t>
+  </si>
+  <si>
+    <t>DICOM
+SlidesScans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートに関連づけられたメディアに関する情報</t>
+  </si>
+  <si>
+    <t>通常は画像。診断プロセス中に作成され、患者から直接取得されたもの、あるいは調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
+  </si>
+  <si>
+    <t>多くの診断業務では提供情報の一部としてレポートに画像を含む。</t>
+  </si>
+  <si>
+    <t>OBX?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.media.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -541,563 +875,13 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>DiagnosticReport.category:microbiology.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.extension</t>
+    <t>DiagnosticReport.media.extension</t>
   </si>
   <si>
     <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.system</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.system</t>
-  </si>
-  <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.version</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.version</t>
-  </si>
-  <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.code</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>LP7819-8</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.display</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.display</t>
-  </si>
-  <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>微生物検査</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.coding.userSelected</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category:microbiology.text</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.text</t>
-  </si>
-  <si>
-    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートを説明するコードまたは名前</t>
-  </si>
-  <si>
-    <t>すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素と事前・事後の用語作成（pre- and post-coordination）との関係を管理するための独自の構造を提供する必要がある。</t>
-  </si>
-  <si>
-    <t>診断レポートを説明するコード。 / Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
-</t>
-  </si>
-  <si>
-    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの対象患者に関する情報</t>
-  </si>
-  <si>
-    <t>レポートの対象、通常、Patientリソースへの参照。ただし、他のさまざまなソースから収集された検体を対象とすることもある。参照は内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
-  </si>
-  <si>
-    <t>主題のコンテキストを知っておく必要があります。 / SHALL know the subject context.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
-</t>
-  </si>
-  <si>
-    <t>直近の細菌検査に直結するEncounterリソースを参照【詳細参照】</t>
-  </si>
-  <si>
-    <t>直近の細菌検査に直結するEncounterリソースを参照</t>
-  </si>
-  <si>
-    <t>受診、入院、診察など。通常、イベントが発生したEncounterであるが、一部のイベントは、Encounterの正式な完了の前または後に開始される場合があり、その場合でもEncounterのコンテキストに関連付けられている（例：入院前の臨床検査）。</t>
-  </si>
-  <si>
-    <t>リクエストをエンカウンターコンテキストにリンクします。 / Links the request to the Encounter context.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.effective[x]</t>
-  </si>
-  <si>
-    <t>Observation time
-Effective TimeOccurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>検体採取日時（effectivePeriod は未使用）【詳細参照】</t>
-  </si>
-  <si>
-    <t>検体採取日時（effectivePeriod は未使用）</t>
-  </si>
-  <si>
-    <t>診断手順が患者に対して実行された場合、これは実施された時間である。対象が検体である場合は、検体採取時間から診断関連時刻を導き出すことができるが、検体情報が常に入手できるとは限らず、検体と診断関連時刻の正確な関係は必ずしも自明ではない。</t>
-  </si>
-  <si>
-    <t>このレポートを提出/提示するために、患者履歴のどこにあるかを知る必要があります。 / Need to know where in the patient history to file/present this report.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.issued</t>
-  </si>
-  <si>
-    <t>Date published
-Date IssuedDate Verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>最新のレポート確定日【詳細参照】</t>
-  </si>
-  <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時。</t>
-  </si>
-  <si>
-    <t>通常、レポートがレビューおよび検証・確定された後となる。リソース自体の更新時刻とは異なる場合がある。これは、レポートの実際の提供時刻ではなく、リソース自体の更新時刻はレコード（場合によってはセカンダリコピー）のステータスの更新時刻となるため。</t>
-  </si>
-  <si>
-    <t>臨床医は、報告書が発表された日付を確認できる必要があります。 / Clinicians need to be able to check the date that the report was released.</t>
-  </si>
-  <si>
-    <t>OBR-22</t>
-  </si>
-  <si>
-    <t>participation[typeCode=VRF or AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.performer</t>
-  </si>
-  <si>
-    <t>Laboratory
-ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする</t>
-  </si>
-  <si>
-    <t>必ずしも１項目データ単位のデータソースまたは結果を解釈した主体でなない。臨床レポートに責任をもつ主体のこと。</t>
-  </si>
-  <si>
-    <t>結果についてクエリがある場合は、誰に連絡するかを知る必要があります。また、二次データ分析のためにレポートのソースを追跡する必要がある場合があります。 / Need to know whom to contact if there are queries about the results. Also may need to track the source of reports for secondary data analysis.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>PRT-8 (where this PRT-4-Participation = "PO")</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.resultsInterpreter</t>
-  </si>
-  <si>
-    <t>Analyzed by
-Reported by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
-</t>
-  </si>
-  <si>
-    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）【詳細参照】</t>
-  </si>
-  <si>
-    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）</t>
-  </si>
-  <si>
-    <t>診断レポートに責任を持つもの(performer)とは異なる場合がある。</t>
-  </si>
-  <si>
-    <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen)
-</t>
-  </si>
-  <si>
-    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートのもとになった検体に関する情報</t>
-  </si>
-  <si>
-    <t>検査結果名称のコードを見れば検体情報が十分に判明するような場合には、この検体情報は冗長になる。複数の検体が関与する場合には、検査や検査グループごとに検体情報が記述されることがある。</t>
-  </si>
-  <si>
-    <t>レポートの基礎となる収集された標本に関する情報を報告できる必要があります。 / Need to be able to report information about the collected specimens on which the report is based.</t>
-  </si>
-  <si>
-    <t>SPM</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.result</t>
-  </si>
-  <si>
-    <t>Data
-Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Microbiology)
-</t>
-  </si>
-  <si>
-    <t>該当するObservationを設定する【詳細参照】</t>
-  </si>
-  <si>
-    <t>該当するObservationを設定する</t>
-  </si>
-  <si>
-    <t>Observationsは階層構造を持てる。</t>
-  </si>
-  <si>
-    <t>個々の結果または結果のグループをサポートする必要がある。結果のグループ化は任意だが、意味がある場合にグループ化される。</t>
-  </si>
-  <si>
-    <t>OBXs</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.imagingStudy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
-</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用</t>
-  </si>
-  <si>
-    <t>診断的精査中に実施された画像検査の詳細情報へのひとつ/複数のリンク。通常は、DICOM対応のモダリティーによって実施される画像検査だが、必須ではない。完全対応のPACSビューワはこの情報を使用して原画像の一覧を提供できる。</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media</t>
-  </si>
-  <si>
-    <t>DICOM
-SlidesScans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけられたメディアに関する情報</t>
-  </si>
-  <si>
-    <t>通常は画像。診断プロセス中に作成され、患者から直接取得されたもの、あるいは調製された検体標本（つまり、関心のあるスライド）のこともある。</t>
-  </si>
-  <si>
-    <t>多くの診断業務では提供情報の一部としてレポートに画像を含む。</t>
-  </si>
-  <si>
-    <t>OBX?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.media.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1518,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1527,8 +1311,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.37890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1552,8 +1336,8 @@
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3101,7 +2885,7 @@
         <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>41</v>
@@ -3120,7 +2904,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
@@ -3167,18 +2951,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>51</v>
@@ -3190,10 +2974,10 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>162</v>
@@ -3211,7 +2995,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3226,13 +3010,13 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3250,10 +3034,10 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>51</v>
@@ -3262,38 +3046,38 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3302,21 +3086,23 @@
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3352,16 +3138,16 @@
         <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>171</v>
@@ -3370,44 +3156,44 @@
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3419,19 +3205,19 @@
         <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>41</v>
@@ -3480,13 +3266,13 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>41</v>
@@ -3495,28 +3281,28 @@
         <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3532,19 +3318,23 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3592,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3604,38 +3394,38 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -3644,21 +3434,23 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>97</v>
+        <v>206</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3694,62 +3486,62 @@
         <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3761,26 +3553,26 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3822,13 +3614,13 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
@@ -3837,35 +3629,35 @@
         <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3877,18 +3669,20 @@
         <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3936,13 +3730,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -3951,24 +3745,24 @@
         <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3979,7 +3773,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3988,27 +3782,29 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>41</v>
@@ -4050,13 +3846,13 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
@@ -4068,10 +3864,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4079,21 +3875,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -4102,20 +3898,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4125,7 +3923,7 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>41</v>
@@ -4164,13 +3962,13 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
@@ -4182,10 +3980,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4193,10 +3991,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4207,7 +4005,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4216,23 +4014,21 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4280,13 +4076,13 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
@@ -4298,10 +4094,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4309,21 +4105,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4335,19 +4131,19 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4396,13 +4192,13 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>41</v>
@@ -4414,10 +4210,10 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4425,18 +4221,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>51</v>
@@ -4448,20 +4244,18 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>141</v>
+        <v>263</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -4486,13 +4280,13 @@
         <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>41</v>
@@ -4510,10 +4304,10 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>51</v>
@@ -4522,38 +4316,38 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>253</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
@@ -4562,23 +4356,21 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4626,74 +4418,74 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>262</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>100</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4742,43 +4534,43 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>94</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4794,10 +4586,10 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>277</v>
@@ -4858,7 +4650,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4873,32 +4665,32 @@
         <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>51</v>
@@ -4913,20 +4705,16 @@
         <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4974,10 +4762,10 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>51</v>
@@ -4992,32 +4780,32 @@
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>41</v>
@@ -5026,22 +4814,20 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -5090,13 +4876,13 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>41</v>
@@ -5105,28 +4891,28 @@
         <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>305</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5142,23 +4928,21 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>308</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>41</v>
       </c>
@@ -5182,13 +4966,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -5206,7 +4990,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5221,24 +5005,24 @@
         <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>305</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5261,19 +5045,19 @@
         <v>41</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5322,7 +5106,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5340,1272 +5124,12 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="P44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN44" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="374">
   <si>
     <t>Property</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/DiagnosticReport</t>
+    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -374,10 +374,10 @@
     <t>実行者/実施者または他のシステムによってこのレポートに割り当てられた識別子</t>
   </si>
   <si>
-    <t>通常、診断サービスプロバイダー（Filler ID）の情報システムによって割り当てられます。 / Usually assigned by the Information System of the diagnostic service provider (filler id).</t>
-  </si>
-  <si>
-    <t>ソース研究所からのこのレポートについてクエリを作成する際に使用する識別子を知る必要があります。 / Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+    <t>通常、診断サービスプロバイダの情報システム（フィラーID）によって割り当てられる。</t>
+  </si>
+  <si>
+    <t>発生源の検査室からこのレポートについてクエリを作成するとき、およびFHIRコンテキスト外のレポートにリンクするときに使用する識別子を知る必要がある。</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -471,7 +471,7 @@
     <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード。微生物検査では、LoincコードのLP7819-8 微生物検査/MICRO を使用する。</t>
   </si>
   <si>
-    <t>さまざまな分類スキームを使用して、複数のカテゴリが許可されています。粒度のレベルは、値セットのカテゴリの概念によって定義されます。DiagnosticReport.codeのメタデータおよび/または用語階層を使用して、より微細粒度フィルタリングを実行できます。 / Multiple categories are allowed using various categorization schemes.   The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+    <t>これは、検索、並べ替え、および表示の目的で使用される。</t>
   </si>
   <si>
     <t>example</t>
@@ -499,16 +499,215 @@
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>DiagnosticReport.category.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.extension</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.system</t>
+  </si>
+  <si>
+    <t>カテゴリーコードシステムの識別URL</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.version</t>
+  </si>
+  <si>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.code</t>
+  </si>
+  <si>
+    <t>カテゴリーコード</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.display</t>
+  </si>
+  <si>
+    <t>カテゴリー表示名</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.text</t>
+  </si>
+  <si>
+    <t>コンセプトの単純なテキスト表現 / Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>データを入力したユーザー、および/またはユーザーの意図された意味を表すユーザーによって見られる/選択/発言された概念の人間の言語表現。 / A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>多くの場合、テキストはコーディングの1つの表示名と同じです。 / Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>用語からのコードは、それらを使用する人間のすべてのニュアンスを使用して、常に正しい意味をキャプチャするとは限りません。または、適切なコードがまったくない場合があります。これらの場合、テキストはソースの完全な意味をキャプチャするために使用されます。 / The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:microbiology</t>
   </si>
   <si>
     <t>microbiology</t>
   </si>
   <si>
-    <t>サービスカテゴリ / Service category</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野、部門、または診断サービスを分類するコード（例：心臓病学、生化学、血液学、MRI）。これは、検索、並べ替え、表示に使用されます。 / A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
     <t>【JP Core仕様】レポートカテゴリーとして、LoincコードのLP7819-8 (微生物検査/MICRO)を使用する。</t>
@@ -523,6 +722,39 @@
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.system</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.version</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.code</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.display</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.coding.userSelected</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category:microbiology.text</t>
   </si>
   <si>
     <t>DiagnosticReport.code</t>
@@ -547,10 +779,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>診断レポートを説明するコード。 / Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DocumentCodes_DiagnosticReport_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -744,10 +973,6 @@
 Reported by</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
-</t>
-  </si>
-  <si>
     <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）【詳細参照】</t>
   </si>
   <si>
@@ -859,29 +1084,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1302,7 +1505,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1311,8 +1514,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -1334,10 +1537,10 @@
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2840,17 +3043,15 @@
         <v>153</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>51</v>
@@ -2862,10 +3063,10 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>155</v>
@@ -2873,9 +3074,7 @@
       <c r="M14" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>157</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -2885,87 +3084,89 @@
         <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>41</v>
@@ -2974,18 +3175,20 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -2995,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>41</v>
@@ -3010,74 +3213,74 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>41</v>
@@ -3089,19 +3292,19 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3150,13 +3353,13 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>41</v>
@@ -3165,28 +3368,28 @@
         <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3202,23 +3405,19 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>41</v>
       </c>
@@ -3266,7 +3465,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3278,38 +3477,38 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3318,23 +3517,21 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3370,55 +3567,55 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3437,19 +3634,19 @@
         <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3498,7 +3695,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3516,32 +3713,32 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3553,20 +3750,18 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3614,13 +3809,13 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>41</v>
@@ -3629,35 +3824,35 @@
         <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3669,19 +3864,17 @@
         <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -3730,13 +3923,13 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>41</v>
@@ -3745,24 +3938,24 @@
         <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3773,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
@@ -3782,22 +3975,20 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -3846,13 +4037,13 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>41</v>
@@ -3864,10 +4055,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -3875,21 +4066,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -3898,22 +4089,22 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -3962,13 +4153,13 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>41</v>
@@ -3980,10 +4171,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -3991,10 +4182,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4005,7 +4196,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -4014,21 +4205,23 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4076,13 +4269,13 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>41</v>
@@ -4094,10 +4287,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4105,21 +4298,23 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4131,20 +4326,18 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4153,7 +4346,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4168,13 +4361,11 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4192,7 +4383,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4210,21 +4401,21 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>151</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4247,13 +4438,13 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4304,7 +4495,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4325,7 +4516,7 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4333,10 +4524,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4365,7 +4556,7 @@
         <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>100</v>
@@ -4406,19 +4597,19 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4439,7 +4630,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4447,14 +4638,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>164</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4467,25 +4658,25 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4534,7 +4725,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4546,16 +4737,16 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4563,10 +4754,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4589,20 +4780,16 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4650,7 +4837,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4662,7 +4849,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4671,7 +4858,7 @@
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>158</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4679,21 +4866,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4702,18 +4889,20 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -4750,31 +4939,31 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4783,7 +4972,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>286</v>
+        <v>158</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4791,14 +4980,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>175</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4814,20 +5003,22 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
@@ -4876,7 +5067,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -4894,10 +5085,10 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -4905,10 +5096,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4919,7 +5110,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -4928,19 +5119,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4966,13 +5157,13 @@
         <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>297</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>41</v>
@@ -4990,13 +5181,13 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>41</v>
@@ -5008,10 +5199,10 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>188</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5019,10 +5210,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5033,7 +5224,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -5042,22 +5233,20 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>301</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5106,13 +5295,13 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
@@ -5124,12 +5313,2540 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y37" s="2"/>
+      <c r="Z37" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="L42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="B44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -152,7 +152,7 @@
     <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。</t>
   </si>
   <si>
-    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。  
 【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="375">
   <si>
     <t>Property</t>
   </si>
@@ -713,14 +713,6 @@
     <t>【JP Core仕様】レポートカテゴリーとして、LoincコードのLP7819-8 (微生物検査/MICRO)を使用する。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="LP7819-8"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
@@ -742,10 +734,16 @@
     <t>DiagnosticReport.category:microbiology.coding.system</t>
   </si>
   <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:microbiology.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category:microbiology.coding.code</t>
+  </si>
+  <si>
+    <t>LP7819-8</t>
   </si>
   <si>
     <t>DiagnosticReport.category:microbiology.coding.display</t>
@@ -4346,7 +4344,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4365,7 +4363,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4412,7 +4410,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>153</v>
@@ -4524,7 +4522,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>159</v>
@@ -4638,7 +4636,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>164</v>
@@ -4754,7 +4752,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>173</v>
@@ -4866,7 +4864,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>174</v>
@@ -4980,7 +4978,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>175</v>
@@ -5025,7 +5023,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5253,7 +5251,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5324,7 +5322,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>195</v>
@@ -5438,7 +5436,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>201</v>
@@ -5554,7 +5552,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>210</v>
@@ -5670,14 +5668,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5699,10 +5697,10 @@
         <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5714,7 +5712,7 @@
         <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>41</v>
@@ -5733,7 +5731,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5751,7 +5749,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>51</v>
@@ -5766,28 +5764,28 @@
         <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5806,19 +5804,19 @@
         <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -5867,7 +5865,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5882,28 +5880,28 @@
         <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5922,19 +5920,19 @@
         <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5983,7 +5981,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5998,28 +5996,28 @@
         <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6038,19 +6036,19 @@
         <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6099,7 +6097,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6114,28 +6112,28 @@
         <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6154,19 +6152,19 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6215,7 +6213,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6233,25 +6231,25 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6270,19 +6268,19 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6331,7 +6329,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6346,28 +6344,28 @@
         <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6386,19 +6384,19 @@
         <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6447,7 +6445,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6462,24 +6460,24 @@
         <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6502,19 +6500,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6563,7 +6561,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6581,10 +6579,10 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6592,14 +6590,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6618,19 +6616,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6679,7 +6677,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6697,10 +6695,10 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6708,10 +6706,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6734,16 +6732,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6793,7 +6791,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6814,7 +6812,7 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6822,14 +6820,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6848,19 +6846,19 @@
         <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -6909,7 +6907,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6927,10 +6925,10 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6938,10 +6936,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7050,10 +7048,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7164,14 +7162,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7193,10 +7191,10 @@
         <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>100</v>
@@ -7251,7 +7249,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7280,10 +7278,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7309,16 +7307,16 @@
         <v>154</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7367,7 +7365,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7388,7 +7386,7 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7396,10 +7394,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7422,13 +7420,13 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7479,7 +7477,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>51</v>
@@ -7500,7 +7498,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7508,14 +7506,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7537,14 +7535,14 @@
         <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7593,7 +7591,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7611,10 +7609,10 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7622,10 +7620,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7651,13 +7649,13 @@
         <v>141</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7686,10 +7684,10 @@
         <v>145</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -7707,7 +7705,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7725,10 +7723,10 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7736,10 +7734,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7762,19 +7760,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7823,7 +7821,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7841,10 +7839,10 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -368,9 +368,6 @@
 </t>
   </si>
   <si>
-    <t>実行者/実施者または他のシステムによってこのレポートに割り当てられた識別子【詳細参照】</t>
-  </si>
-  <si>
     <t>実行者/実施者または他のシステムによってこのレポートに割り当てられた識別子</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
 </t>
   </si>
   <si>
-    <t>依頼されたサービス（検査や診断など）に関する詳細情報【詳細参照】</t>
-  </si>
-  <si>
     <t>依頼されたサービス（検査や診断など）に関する詳細情報</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード。微生物検査では、LoincコードのLP7819-8 微生物検査/MICRO を使用する。【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートを作成した臨床分野、部門、または診断サービスを分類するコード。微生物検査では、LoincコードのLP7819-8 微生物検査/MICRO を使用する。</t>
   </si>
   <si>
@@ -704,9 +695,6 @@
     <t>microbiology</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
@@ -760,9 +748,6 @@
   <si>
     <t xml:space="preserve">Type
 </t>
-  </si>
-  <si>
-    <t>診断レポート種別「微生物学的検査報告書」を表す文書コード【詳細参照】</t>
   </si>
   <si>
     <t>診断レポート種別「微生物学的検査報告書」を表す文書コード</t>
@@ -803,9 +788,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの対象患者に関する情報</t>
   </si>
   <si>
@@ -838,9 +820,6 @@
 </t>
   </si>
   <si>
-    <t>直近の細菌検査に直結するEncounterリソースを参照【詳細参照】</t>
-  </si>
-  <si>
     <t>直近の細菌検査に直結するEncounterリソースを参照</t>
   </si>
   <si>
@@ -873,9 +852,6 @@
 </t>
   </si>
   <si>
-    <t>検体採取日時（effectivePeriod は未使用）【詳細参照】</t>
-  </si>
-  <si>
     <t>検体採取日時（effectivePeriod は未使用）</t>
   </si>
   <si>
@@ -908,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t>最新のレポート確定日【詳細参照】</t>
+    <t>最新のレポート確定日</t>
   </si>
   <si>
     <t>このバージョンの診断レポートが医療者に提供/確定された日時。</t>
@@ -940,9 +916,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報、原則未使用とする</t>
   </si>
   <si>
@@ -971,9 +944,6 @@
 Reported by</t>
   </si>
   <si>
-    <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）【詳細参照】</t>
-  </si>
-  <si>
     <t>検査責任者（外部検査会社への委託の場合には組織名を指定することもある）</t>
   </si>
   <si>
@@ -990,9 +960,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートのもとになった検体に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートのもとになった検体に関する情報</t>
   </si>
   <si>
@@ -1016,9 +983,6 @@
 </t>
   </si>
   <si>
-    <t>該当するObservationを設定する【詳細参照】</t>
-  </si>
-  <si>
     <t>該当するObservationを設定する</t>
   </si>
   <si>
@@ -1041,9 +1005,6 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートに関連づけれられたDICOM検査画像に関する情報、原則未使用</t>
   </si>
   <si>
@@ -1062,9 +1023,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートに関連づけられたメディアに関する情報</t>
@@ -1159,9 +1117,6 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード、原則未使用【詳細参照】</t>
-  </si>
-  <si>
     <t>診断レポートの要約結論（解釈、インプレッション）を表すコード、原則未使用</t>
   </si>
   <si>
@@ -1182,9 +1137,6 @@
   <si>
     <t xml:space="preserve">Attachment
 </t>
-  </si>
-  <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）、原則未使用【詳細参照】</t>
   </si>
   <si>
     <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）、原則未使用</t>
@@ -2612,13 +2564,13 @@
         <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>41</v>
@@ -2682,28 +2634,28 @@
         <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2722,19 +2674,19 @@
         <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>41</v>
@@ -2783,7 +2735,7 @@
         <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2798,13 +2750,13 @@
         <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2812,10 +2764,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2841,14 +2793,14 @@
         <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>41</v>
@@ -2873,14 +2825,14 @@
         <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="Z12" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2897,7 +2849,7 @@
         <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>51</v>
@@ -2912,28 +2864,28 @@
         <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2952,16 +2904,16 @@
         <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2987,29 +2939,29 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3027,21 +2979,21 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3064,13 +3016,13 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3121,7 +3073,7 @@
         <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3142,7 +3094,7 @@
         <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -3150,10 +3102,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3182,7 +3134,7 @@
         <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>100</v>
@@ -3223,19 +3175,19 @@
         <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3256,7 +3208,7 @@
         <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -3264,10 +3216,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3290,19 +3242,19 @@
         <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>41</v>
@@ -3351,7 +3303,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3369,10 +3321,10 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -3380,10 +3332,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3406,13 +3358,13 @@
         <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3463,7 +3415,7 @@
         <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3484,7 +3436,7 @@
         <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -3492,10 +3444,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3524,7 +3476,7 @@
         <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>100</v>
@@ -3565,19 +3517,19 @@
         <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3598,7 +3550,7 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>41</v>
@@ -3606,10 +3558,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3635,16 +3587,16 @@
         <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>41</v>
@@ -3693,7 +3645,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3711,10 +3663,10 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3722,10 +3674,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3748,16 +3700,16 @@
         <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3807,7 +3759,7 @@
         <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3825,10 +3777,10 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>41</v>
@@ -3836,10 +3788,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3865,14 +3817,14 @@
         <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
@@ -3921,7 +3873,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3939,10 +3891,10 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3950,10 +3902,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3976,17 +3928,17 @@
         <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>41</v>
@@ -4035,7 +3987,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4053,10 +4005,10 @@
         <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>41</v>
@@ -4064,10 +4016,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4090,19 +4042,19 @@
         <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
@@ -4151,7 +4103,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4169,10 +4121,10 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4180,10 +4132,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4206,19 +4158,19 @@
         <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4267,7 +4219,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4285,10 +4237,10 @@
         <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
@@ -4296,16 +4248,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4324,16 +4276,16 @@
         <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4359,11 +4311,11 @@
         <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4381,7 +4333,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4399,21 +4351,21 @@
         <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4436,13 +4388,13 @@
         <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4493,7 +4445,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4514,7 +4466,7 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4522,10 +4474,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4554,7 +4506,7 @@
         <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>100</v>
@@ -4595,19 +4547,19 @@
         <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4628,7 +4580,7 @@
         <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4636,10 +4588,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4662,19 +4614,19 @@
         <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>41</v>
@@ -4723,7 +4675,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4741,10 +4693,10 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4752,10 +4704,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4778,13 +4730,13 @@
         <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4835,7 +4787,7 @@
         <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4856,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -4864,10 +4816,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4896,7 +4848,7 @@
         <v>98</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>100</v>
@@ -4937,19 +4889,19 @@
         <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4970,7 +4922,7 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -4978,10 +4930,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5007,23 +4959,23 @@
         <v>65</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5065,7 +5017,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5083,10 +5035,10 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5094,10 +5046,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5120,16 +5072,16 @@
         <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5179,7 +5131,7 @@
         <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5197,10 +5149,10 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>41</v>
@@ -5208,10 +5160,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5237,21 +5189,21 @@
         <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5293,7 +5245,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5311,10 +5263,10 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>41</v>
@@ -5322,10 +5274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5348,17 +5300,17 @@
         <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>41</v>
@@ -5407,7 +5359,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5425,10 +5377,10 @@
         <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5436,10 +5388,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5462,19 +5414,19 @@
         <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -5523,7 +5475,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5541,10 +5493,10 @@
         <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5552,10 +5504,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5578,19 +5530,19 @@
         <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -5639,7 +5591,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5657,10 +5609,10 @@
         <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5668,14 +5620,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5694,13 +5646,13 @@
         <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5712,7 +5664,7 @@
         <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>41</v>
@@ -5731,7 +5683,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5749,7 +5701,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>51</v>
@@ -5764,28 +5716,28 @@
         <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5804,19 +5756,19 @@
         <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -5865,7 +5817,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5880,28 +5832,28 @@
         <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5920,19 +5872,19 @@
         <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -5981,7 +5933,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5996,28 +5948,28 @@
         <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6036,19 +5988,19 @@
         <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6097,7 +6049,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6112,28 +6064,28 @@
         <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6152,19 +6104,19 @@
         <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>41</v>
@@ -6213,7 +6165,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6231,25 +6183,25 @@
         <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6268,19 +6220,19 @@
         <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6329,7 +6281,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6344,28 +6296,28 @@
         <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6384,19 +6336,19 @@
         <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -6445,7 +6397,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6460,24 +6412,24 @@
         <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6500,19 +6452,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>41</v>
@@ -6561,7 +6513,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6579,10 +6531,10 @@
         <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6590,14 +6542,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6616,19 +6568,19 @@
         <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -6677,7 +6629,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6695,10 +6647,10 @@
         <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6706,10 +6658,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6732,16 +6684,16 @@
         <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6791,7 +6743,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6812,7 +6764,7 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6820,14 +6772,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6846,19 +6798,19 @@
         <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -6907,7 +6859,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6925,10 +6877,10 @@
         <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -6936,10 +6888,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6962,13 +6914,13 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7019,7 +6971,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7040,7 +6992,7 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>41</v>
@@ -7048,10 +7000,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7080,7 +7032,7 @@
         <v>98</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>100</v>
@@ -7133,7 +7085,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7154,7 +7106,7 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>41</v>
@@ -7162,14 +7114,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7191,10 +7143,10 @@
         <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>100</v>
@@ -7249,7 +7201,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7278,10 +7230,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7304,19 +7256,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -7365,7 +7317,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7386,7 +7338,7 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>41</v>
@@ -7394,10 +7346,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7420,13 +7372,13 @@
         <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7477,7 +7429,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>51</v>
@@ -7498,7 +7450,7 @@
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7506,14 +7458,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7532,17 +7484,17 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>41</v>
@@ -7591,7 +7543,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7609,10 +7561,10 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7620,10 +7572,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7646,16 +7598,16 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7681,13 +7633,13 @@
         <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>41</v>
@@ -7705,7 +7657,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7723,10 +7675,10 @@
         <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7734,10 +7686,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7760,19 +7712,19 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -7821,7 +7773,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7839,10 +7791,10 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1455,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1468,10 +1588,11 @@
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1479,6325 +1600,6447 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>328</v>
+        <v>197</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>354</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -127,126 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1575,7 +1455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN56"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1588,11 +1468,10 @@
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1600,6447 +1479,6325 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
+      <c r="AN1" t="s" s="2">
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="I6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>123</v>
-      </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AC13" s="2"/>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="P31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>81</v>
+        <v>234</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>276</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>291</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>301</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>288</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>331</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>328</v>
+        <v>41</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>331</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>81</v>
+        <v>304</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>344</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>349</v>
+        <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>317</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>357</v>
+        <v>41</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>151</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>152</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>136</v>
+        <v>326</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>197</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="P50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>140</v>
+        <v>333</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>191</v>
+        <v>337</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>375</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>377</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>341</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>383</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>51</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,126 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Report
@@ -1455,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1468,10 +1588,11 @@
     <col min="2" max="2" width="44.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="207.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1479,6325 +1600,6447 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="12.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="21.421875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="L1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>68</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AC13" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>226</v>
+        <v>81</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>229</v>
+        <v>81</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y37" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z37" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>241</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>281</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>291</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>41</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>304</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>317</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>322</v>
+        <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>41</v>
+        <v>357</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>151</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>152</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>154</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>326</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>328</v>
+        <v>197</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>329</v>
+        <v>200</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>333</v>
+        <v>140</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>334</v>
+        <v>146</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>335</v>
+        <v>134</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>151</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>345</v>
+        <v>81</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>354</v>
+        <v>179</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>41</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-diagnosticreport-microbiology.xlsx
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
